--- a/biology/Botanique/Sabiaceae/Sabiaceae.xlsx
+++ b/biology/Botanique/Sabiaceae/Sabiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Sabiacées, ou Sabiaceae, sont une famille de plantes dicotylédones dont la classification et la composition sont souvent remises en question. La classification phylogénétique APG IV (2016)[3] rattache cette famille à l'ordre des Proteales et trois genres sont le plus souvent distingués. Les plantes du genre Sabia sont des lianes ou des arbustes, des régions subtropicales à tropicales, originaires de l'Inde, de l'Extrême-Orient ou des Îles Salomon. Les centaines d'espèces des genres Meliosma et Ophiocaryon  sont des arbres et des arbustes à feuilles persistantes des régions subtropicales d'Amérique et d'Asie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sabiacées, ou Sabiaceae, sont une famille de plantes dicotylédones dont la classification et la composition sont souvent remises en question. La classification phylogénétique APG IV (2016) rattache cette famille à l'ordre des Proteales et trois genres sont le plus souvent distingués. Les plantes du genre Sabia sont des lianes ou des arbustes, des régions subtropicales à tropicales, originaires de l'Inde, de l'Extrême-Orient ou des Îles Salomon. Les centaines d'espèces des genres Meliosma et Ophiocaryon  sont des arbres et des arbustes à feuilles persistantes des régions subtropicales d'Amérique et d'Asie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Sabia dérivé de l'hindi sab-ya, nom indien du Sabia lanceolata[4] autrement appelé Sabia kachinica H. Y. Chen[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Sabia dérivé de l'hindi sab-ya, nom indien du Sabia lanceolata autrement appelé Sabia kachinica H. Y. Chen.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[6], cette famille est rattachée à l'ordre des Ranunculales.
-Pour la classification phylogénétique APG (1998)[7], la divergence de cette famille se situe à la base des Dicotylédones vraies (Eudicots).
-Le Angiosperm Phylogeny Website [22 jan 2009] assigne cette famille à l'ordre des Sabiales, mais la classification phylogénétique APG III (2009)[8] continue à l'assigner sans ordre sous Dicotylédones vraies.
-La classification phylogénétique APG IV (2016)[3] rattache cette famille à l'ordre des Proteales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille est rattachée à l'ordre des Ranunculales.
+Pour la classification phylogénétique APG (1998), la divergence de cette famille se situe à la base des Dicotylédones vraies (Eudicots).
+Le Angiosperm Phylogeny Website [22 jan 2009] assigne cette famille à l'ordre des Sabiales, mais la classification phylogénétique APG III (2009) continue à l'assigner sans ordre sous Dicotylédones vraies.
+La classification phylogénétique APG IV (2016) rattache cette famille à l'ordre des Proteales.
 </t>
         </is>
       </c>
@@ -576,20 +592,22 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (7 mai 2020)[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (7 mai 2020) :
 genre Meliosma Blume
-Selon BioLib                    (7 mai 2020)[1], Catalogue of Life                                   (7 mai 2020)[10], GRIN            (7 mai 2020)[2] et  NCBI  (7 mai 2020)[11] :
+Selon BioLib                    (7 mai 2020), Catalogue of Life                                   (7 mai 2020), GRIN            (7 mai 2020) et  NCBI  (7 mai 2020) :
 genre Meliosma Blume
 genre Ophiocaryon Endl.
 genre Sabia Colebr.
-Selon Paleobiology Database                   (7 mai 2020)[12] :
+Selon Paleobiology Database                   (7 mai 2020) :
 genre Bognoria
 genre Meliosma
 genre Sabiocaulis
 genre Sabioxylon
-Selon Tropicos                                           (7 mai 2020)[13] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 mai 2020) (Attention liste brute contenant possiblement des synonymes) :
 genre Androglossum Champion ex Bentham
 genre Changiodendron R.H. Miao
 genre Enantia Falc.
@@ -630,9 +648,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (7 mai 2020)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (7 mai 2020) (Attention liste brute contenant possiblement des synonymes) :
 genre Meliosma
 Meliosma dilleniifolia (Wall. ex Wight &amp; Arn.) Walp.
 Meliosma myriantha Siebold &amp; Zucc.
@@ -645,7 +665,7 @@
 Ophiocaryon heterophyllum (Benth.) Urb.
 genre Sabia
 Sabia pauciflora Blume
-Selon NCBI  (23 avr. 2010)[14] :
+Selon NCBI  (23 avr. 2010) :
 genre Meliosma
 Meliosma cuneifolia
 Meliosma dilleniifolia
